--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1344,10 +1356,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1391,28 +1403,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1437,28 +1449,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1662,10 +1674,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1709,28 +1721,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1755,28 +1767,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1893,10 +1905,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1940,28 +1952,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1986,28 +1998,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2124,10 +2136,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2171,28 +2183,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2217,28 +2229,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2355,10 +2367,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2402,28 +2414,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2448,28 +2460,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2673,10 +2685,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2720,28 +2732,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2766,28 +2778,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3078,10 +3090,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3125,28 +3137,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3171,28 +3183,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3483,10 +3495,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3530,28 +3542,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3576,28 +3588,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3714,10 +3726,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3761,28 +3773,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3807,28 +3819,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3945,10 +3957,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3992,28 +4004,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4038,28 +4050,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4176,10 +4188,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4223,28 +4235,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4269,28 +4281,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4523,10 +4535,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4570,28 +4582,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4616,28 +4628,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4957,10 +4969,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="2" t="s">
+      <c r="J167" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5004,28 +5016,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="2">
+      <c r="A169" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="2">
+      <c r="C169" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5050,28 +5062,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="2">
+      <c r="C171" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="2">
+      <c r="D171" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="2">
+      <c r="I171" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5188,10 +5200,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5235,28 +5247,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5281,28 +5293,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5448,10 +5460,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5495,28 +5507,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5541,28 +5553,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5708,10 +5720,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5755,28 +5767,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5801,28 +5813,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5910,10 +5922,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5957,28 +5969,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6003,28 +6015,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6083,10 +6095,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
